--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Schedule.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Schedule.xlsx
@@ -493,23 +493,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="21" width="44.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="185.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="86.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Schedule.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Schedule.xlsx
@@ -114,9 +114,6 @@
     <t>SELECT AC.DESCRIPTION FROM DC_TRANSACTION_ACTIVITY_CONFIG AC WHERE AC.TRANSACTION_TYPE_ID =(SELECT DT.TRANSACTION_TYPE_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
   <si>
-    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '06047900194203' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = 'ABBY');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY');COMMIT;END;</t>
-  </si>
-  <si>
     <t>Frequency_Value</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>When valid Account Details And Schedule Dates are provided with adding new Bene</t>
+  </si>
+  <si>
+    <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '{account_number}' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = 'ABBY');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY');COMMIT;END;</t>
   </si>
 </sst>
 </file>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,25 +558,25 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>14</v>
@@ -585,7 +585,7 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>29</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -650,7 +650,7 @@
         <v>18</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>30</v>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Schedule.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/SendMoney_Schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Case</t>
   </si>
@@ -36,9 +36,6 @@
     <t>PurposeOfPayment_Value</t>
   </si>
   <si>
-    <t>02197900643103 | MUHAMMAD KHALID | BANK ROAD, MARDAN</t>
-  </si>
-  <si>
     <t>HBL / Konnect</t>
   </si>
   <si>
@@ -148,6 +145,42 @@
   </si>
   <si>
     <t>BEGIN UPDATE  DC_FUND_TRANSFER_BENEFICIARY TF SET TF.IS_DELETED = 1 WHERE TF.ACCOUNT_NO = '{account_number}' AND TF.CUSTOMER_INFO_ID = (SELECT CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO DCI WHERE DCI.CUSTOMER_NAME = 'ABBY');DELETE FROM DC_DATA_CACHE DC WHERE DC.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = 'ABBY');COMMIT;END;</t>
+  </si>
+  <si>
+    <t>00580052365603</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>tran_amount_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.TRANSACTION_AMOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>to_account_query</t>
+  </si>
+  <si>
+    <t>SELECT DT.TO_ACCOUNT FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
+  </si>
+  <si>
+    <t>to_bank_query</t>
+  </si>
+  <si>
+    <t>SELECT DB.BANK_NAME FROM DC_FUND_TRANSFER_BANK DB WHERE DB.FUND_TRANSFER_BANK_ID = (SELECT DT.BANK_ID FROM DC_TRANSACTION DT WHERE DT.TRANSACTION_ID = '</t>
   </si>
 </sst>
 </file>
@@ -491,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,14 +557,17 @@
     <col min="23" max="23" width="76.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="86.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="167.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -540,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -549,123 +585,153 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" t="s">
         <v>22</v>
       </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
-        <v>24</v>
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
